--- a/biology/Zoologie/Je_suis_un_soldat/Je_suis_un_soldat.xlsx
+++ b/biology/Zoologie/Je_suis_un_soldat/Je_suis_un_soldat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Je suis un soldat est un film français réalisé par Laurent Larivière, présenté dans la sélection Un certain regard au festival de Cannes 2015.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sandrine, trente ans, est obligée de retourner vivre chez sa mère à Roubaix. Sans emploi, elle accepte de travailler pour son oncle dans un chenil qui s'avère être la plaque tournante d’un trafic de chiens venus des pays de l'Est. Elle acquiert rapidement autorité et respect dans ce milieu d’hommes et gagne l’argent qui manque à sa liberté. Mais parfois les bons soldats cessent d’obéir.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Je suis un soldat
 Titre international : I am a Soldier
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Louise Bourgoin : Sandrine
 Jean-Hugues Anglade : Henri
@@ -653,16 +671,55 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-2016, Swann d'Or de la Meilleure actrice pour Louise Bourgoin au Festival du film de Cabourg 2016
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2016, Swann d'Or de la Meilleure actrice pour Louise Bourgoin au Festival du film de Cabourg 2016
 2016, Louis Lumière d'Or au 34e Festival du Premier Film Francophone de La Ciotat
 2016, Prix du Meilleur Scénario au 34e Festival du Premier Film Francophone de La Ciotat
 2016, Audience Special Mention au Festival Colcoa de Los Angeles
 2016, Prix Lumière de la presse étrangère de la meilleure image, David Chizallet, chef-opérateur
 2015, Prix de la meilleure actrice pour Louise Bourgoin au festival de Cosne sur Loire
-2015, Prix d'Interprétation Féminine pour Louise Bourgoin au 37e Festival International du film du Caire
-Nominations et sélections
-Festival de Cannes 2015 : sélection officielle Un certain regard, en compétition pour la Caméra d'or
+2015, Prix d'Interprétation Féminine pour Louise Bourgoin au 37e Festival International du film du Caire</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Je_suis_un_soldat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Je_suis_un_soldat</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations et sélections</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 2015 : sélection officielle Un certain regard, en compétition pour la Caméra d'or
 Festival international du film francophone de Namur
 Cambridge Film Festival (en)
 Festival du film de Philadelphie
